--- a/tables/table-1.xlsx
+++ b/tables/table-1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -498,6 +498,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,7 +846,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tables/table-1.xlsx
+++ b/tables/table-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0574198c81a0fd8/ERP/moth-classification-research-project/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A016B768-059C-4773-BFB7-E0E6207DCD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D44B63-1131-4AC7-9556-0CFE015E3015}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="8_{A016B768-059C-4773-BFB7-E0E6207DCD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A0D37A-8070-46AE-8AE5-1A3DDBEAD9BB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4D26BEB4-BA8B-4CD5-932F-2328E7569F99}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="115">
   <si>
     <t>Species Name</t>
   </si>
@@ -204,13 +204,193 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Training Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Validation Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Test Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Precision (Macro)</t>
+  </si>
+  <si>
+    <t>Recall (Macro)</t>
+  </si>
+  <si>
+    <t>F1-Score (Macro)</t>
+  </si>
+  <si>
+    <t>Table: Moth Dataset Composition Summary</t>
+  </si>
+  <si>
+    <t>ResNet50 (Baseline)</t>
+  </si>
+  <si>
+    <t>EfficientNet-B0</t>
+  </si>
+  <si>
+    <t>InceptionV3</t>
+  </si>
+  <si>
+    <t>VGG16</t>
+  </si>
+  <si>
+    <t>MobileNetV2</t>
+  </si>
+  <si>
+    <t>ViT-B16</t>
+  </si>
+  <si>
+    <t>CoaT-Lite Medium</t>
+  </si>
+  <si>
+    <t>ResNet50 (Partial Fine-Tuning)</t>
+  </si>
+  <si>
+    <t>Table: Baseline Model Results</t>
+  </si>
+  <si>
+    <t>Training Time</t>
+  </si>
+  <si>
+    <t>Partial Fine-Tuning Architecture Specifications</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>ResNet50</t>
+  </si>
+  <si>
+    <t>ViT-B/16</t>
+  </si>
+  <si>
+    <t>Pretrained Dataset</t>
+  </si>
+  <si>
+    <t>ImageNet 1K</t>
+  </si>
+  <si>
+    <t>Total Parameters</t>
+  </si>
+  <si>
+    <t>134.5M</t>
+  </si>
+  <si>
+    <t>25.2M</t>
+  </si>
+  <si>
+    <t>23.6M</t>
+  </si>
+  <si>
+    <t>4.1M</t>
+  </si>
+  <si>
+    <t>2.3M</t>
+  </si>
+  <si>
+    <t>85.8M</t>
+  </si>
+  <si>
+    <t>44.1M</t>
+  </si>
+  <si>
+    <t>Unfrozen Layers</t>
+  </si>
+  <si>
+    <t>classifier[3] &amp; classifier[6]</t>
+  </si>
+  <si>
+    <t>Mixed_7c branches</t>
+  </si>
+  <si>
+    <t>Layer4[2] &amp; fc</t>
+  </si>
+  <si>
+    <t>features[8] &amp; classifier</t>
+  </si>
+  <si>
+    <t>features[18] &amp; classifier</t>
+  </si>
+  <si>
+    <t>encoder_layer_9/10/11 &amp; heads</t>
+  </si>
+  <si>
+    <t>serial_blocks4.5/6/7 &amp; norm4 &amp; head</t>
+  </si>
+  <si>
+    <t>Trainable Parameters</t>
+  </si>
+  <si>
+    <t>17.0M</t>
+  </si>
+  <si>
+    <t>1.8M</t>
+  </si>
+  <si>
+    <t>4.6M</t>
+  </si>
+  <si>
+    <t>476k</t>
+  </si>
+  <si>
+    <t>21.3M</t>
+  </si>
+  <si>
+    <t>9.5M</t>
+  </si>
+  <si>
+    <t>Trainable Percentage</t>
+  </si>
+  <si>
+    <t>224x224x3</t>
+  </si>
+  <si>
+    <t>229x229x3</t>
+  </si>
+  <si>
+    <t>145 m 49 s</t>
+  </si>
+  <si>
+    <t>158 m 34 s</t>
+  </si>
+  <si>
+    <t>37 m 10 s</t>
+  </si>
+  <si>
+    <t>87 m 24 s</t>
+  </si>
+  <si>
+    <t>23 m 47 s</t>
+  </si>
+  <si>
+    <t>54 m 19 s</t>
+  </si>
+  <si>
+    <t>299 m 8 s</t>
+  </si>
+  <si>
+    <t>55 m 4 s</t>
+  </si>
+  <si>
+    <t>Input Size (px)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +411,38 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +452,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -301,11 +513,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +577,100 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,8 +850,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFD4E027-2294-420A-A461-7F4CC846EA10}" name="Table3" displayName="Table3" ref="A1:F52" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F52" xr:uid="{BFD4E027-2294-420A-A461-7F4CC846EA10}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BFD4E027-2294-420A-A461-7F4CC846EA10}" name="Table3" displayName="Table3" ref="A2:F53" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A2:F53" xr:uid="{BFD4E027-2294-420A-A461-7F4CC846EA10}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -843,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE05A1F3-5367-4D87-8E13-238A620B94D7}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,514 +1199,998 @@
     <col min="1" max="1" width="10.08984375" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.08984375" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+    <col min="11" max="11" width="20.6328125" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="14.90625" customWidth="1"/>
+    <col min="14" max="14" width="12.7265625" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" customWidth="1"/>
+    <col min="19" max="19" width="13.90625" customWidth="1"/>
+    <col min="20" max="20" width="28.36328125" customWidth="1"/>
+    <col min="21" max="21" width="16.1796875" customWidth="1"/>
+    <col min="22" max="22" width="17.26953125" customWidth="1"/>
+    <col min="23" max="23" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="H1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="Q1" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="H2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
         <v>140</v>
       </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="H3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="13">
+        <v>91.16</v>
+      </c>
+      <c r="K3" s="12">
+        <v>89.2</v>
+      </c>
+      <c r="L3" s="13">
+        <v>92.8</v>
+      </c>
+      <c r="M3" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="N3" s="14">
+        <v>0.93</v>
+      </c>
+      <c r="O3" s="15">
+        <v>0.93</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="V3" s="27">
+        <v>0.126</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>129</v>
       </c>
-      <c r="D3" s="3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="H4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="13">
+        <v>94.21</v>
+      </c>
+      <c r="K4" s="12">
+        <v>92</v>
+      </c>
+      <c r="L4" s="13">
+        <v>94.4</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="27">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>136</v>
       </c>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="H5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="13">
+        <v>96.49</v>
+      </c>
+      <c r="K5" s="12">
+        <v>96.4</v>
+      </c>
+      <c r="L5" s="13">
+        <v>96.4</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="N5" s="14">
+        <v>0.96</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.96</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="27">
+        <v>0.193</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>133</v>
       </c>
-      <c r="D5" s="3">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="H6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="13">
+        <v>98.2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>93.6</v>
+      </c>
+      <c r="L6" s="13">
+        <v>97.2</v>
+      </c>
+      <c r="M6" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="V6" s="27">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>134</v>
       </c>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="H7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="13">
+        <v>97.58</v>
+      </c>
+      <c r="K7" s="12">
+        <v>96</v>
+      </c>
+      <c r="L7" s="13">
+        <v>98.4</v>
+      </c>
+      <c r="M7" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="O7" s="15">
+        <v>0.98</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" s="29">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>177</v>
       </c>
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="D8" s="3">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="H8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="13">
+        <v>98.59</v>
+      </c>
+      <c r="K8" s="12">
+        <v>96</v>
+      </c>
+      <c r="L8" s="13">
+        <v>98.8</v>
+      </c>
+      <c r="M8" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="N8" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="V8" s="29">
+        <v>0.248</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C9" s="3">
         <v>117</v>
       </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="H9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="13">
+        <v>97.16</v>
+      </c>
+      <c r="K9" s="12">
+        <v>95.2</v>
+      </c>
+      <c r="L9" s="13">
+        <v>97.2</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0.98</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0.97</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0.97</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="36">
+        <v>0.215</v>
+      </c>
+      <c r="W9" s="33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>121</v>
       </c>
-      <c r="D9" s="3">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="H10" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="20">
+        <v>97.34</v>
+      </c>
+      <c r="K10" s="21">
+        <v>96.8</v>
+      </c>
+      <c r="L10" s="20">
+        <v>97.6</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>131</v>
       </c>
-      <c r="D10" s="3">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>122</v>
       </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C13" s="3">
         <v>105</v>
       </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>169</v>
       </c>
-      <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>160</v>
       </c>
-      <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
         <v>136</v>
       </c>
-      <c r="D15" s="3">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>142</v>
       </c>
-      <c r="D16" s="3">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C18" s="3">
         <v>165</v>
       </c>
-      <c r="D17" s="3">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="H18" s="15"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>139</v>
       </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="H19" s="15"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>131</v>
       </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="H20" s="15"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>137</v>
       </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>120</v>
       </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>143</v>
       </c>
-      <c r="D22" s="3">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C24" s="3">
         <v>120</v>
       </c>
-      <c r="D23" s="3">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>186</v>
       </c>
-      <c r="D24" s="3">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="D25" s="3">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5</v>
+      </c>
+      <c r="F25" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" s="3">
-        <v>175</v>
-      </c>
-      <c r="D25" s="3">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5</v>
-      </c>
-      <c r="F25" s="1">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>175</v>
@@ -1376,135 +2205,135 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>175</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
         <v>167</v>
       </c>
-      <c r="D27" s="3">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C29" s="3">
         <v>117</v>
       </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1">
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C30" s="3">
         <v>123</v>
       </c>
-      <c r="D29" s="3">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>170</v>
       </c>
-      <c r="D30" s="3">
-        <v>5</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C32" s="3">
         <v>168</v>
       </c>
-      <c r="D31" s="3">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
         <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3">
-        <v>132</v>
-      </c>
-      <c r="D32" s="3">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
-      <c r="F32" s="1">
-        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D33" s="3">
         <v>5</v>
@@ -1513,18 +2342,18 @@
         <v>5</v>
       </c>
       <c r="F33" s="1">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="D34" s="3">
         <v>5</v>
@@ -1533,18 +2362,18 @@
         <v>5</v>
       </c>
       <c r="F34" s="1">
-        <v>184</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D35" s="3">
         <v>5</v>
@@ -1553,18 +2382,18 @@
         <v>5</v>
       </c>
       <c r="F35" s="1">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C36" s="3">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D36" s="3">
         <v>5</v>
@@ -1573,18 +2402,18 @@
         <v>5</v>
       </c>
       <c r="F36" s="1">
-        <v>180</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D37" s="3">
         <v>5</v>
@@ -1593,18 +2422,18 @@
         <v>5</v>
       </c>
       <c r="F37" s="1">
-        <v>133</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D38" s="3">
         <v>5</v>
@@ -1613,18 +2442,18 @@
         <v>5</v>
       </c>
       <c r="F38" s="1">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" s="3">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3">
         <v>5</v>
@@ -1633,18 +2462,18 @@
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>175</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="3">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D40" s="3">
         <v>5</v>
@@ -1653,18 +2482,18 @@
         <v>5</v>
       </c>
       <c r="F40" s="1">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D41" s="3">
         <v>5</v>
@@ -1673,18 +2502,18 @@
         <v>5</v>
       </c>
       <c r="F41" s="1">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="3">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D42" s="3">
         <v>5</v>
@@ -1693,18 +2522,18 @@
         <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="3">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="D43" s="3">
         <v>5</v>
@@ -1713,18 +2542,18 @@
         <v>5</v>
       </c>
       <c r="F43" s="1">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="3">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D44" s="3">
         <v>5</v>
@@ -1733,18 +2562,18 @@
         <v>5</v>
       </c>
       <c r="F44" s="1">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" s="3">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="D45" s="3">
         <v>5</v>
@@ -1753,18 +2582,18 @@
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>111</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" s="3">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3">
         <v>5</v>
@@ -1773,18 +2602,18 @@
         <v>5</v>
       </c>
       <c r="F46" s="1">
-        <v>156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" s="3">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D47" s="3">
         <v>5</v>
@@ -1793,18 +2622,18 @@
         <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" s="3">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D48" s="3">
         <v>5</v>
@@ -1813,18 +2642,18 @@
         <v>5</v>
       </c>
       <c r="F48" s="1">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" s="3">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="D49" s="3">
         <v>5</v>
@@ -1833,68 +2662,94 @@
         <v>5</v>
       </c>
       <c r="F49" s="1">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="3">
+        <v>130</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C51" s="3">
         <v>143</v>
       </c>
-      <c r="D50" s="3">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>5</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="6">
+      <c r="C52" s="6">
         <v>161</v>
       </c>
-      <c r="D51" s="6">
-        <v>5</v>
-      </c>
-      <c r="E51" s="6">
-        <v>5</v>
-      </c>
-      <c r="F51" s="7">
+      <c r="D52" s="6">
+        <v>5</v>
+      </c>
+      <c r="E52" s="6">
+        <v>5</v>
+      </c>
+      <c r="F52" s="7">
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="4" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
+      <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="3">
         <v>7183</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>250</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>250</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F53" s="1">
         <v>7683</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
